--- a/Table_S6.xlsx
+++ b/Table_S6.xlsx
@@ -330,15 +330,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,18 +980,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -1013,13 +1013,13 @@
       <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1045,13 +1045,13 @@
       <c r="G3" s="9">
         <v>3.64</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>78.801318820000006</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>3.3134360000000003E-24</v>
       </c>
     </row>
@@ -1077,13 +1077,13 @@
       <c r="G4" s="9">
         <v>5.7039999999999997</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>19.109044427897707</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>2.9323290000000001E-13</v>
       </c>
     </row>
@@ -1109,13 +1109,13 @@
       <c r="G5" s="9">
         <v>11.35</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>27.984489581603185</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>3.6580359999999999E-16</v>
       </c>
     </row>
@@ -1141,13 +1141,13 @@
       <c r="G6" s="9">
         <v>11.65</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>32.299999999999997</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>2.7526139999999999E-17</v>
       </c>
     </row>
